--- a/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/protocol/mysql_protocol_cases_txnlsm.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/protocol/mysql_protocol_cases_txnlsm.xlsx
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pro003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Host_used</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,27 +209,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create user 'pro003'@'172.20.3.15' identified by 'abc123'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show create user 'pro003'@'172.20.3.15'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看创建用户语句带有ssl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create user 'pro027' identified by 'abc123' require ssl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show create user 'pro027'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,6 +573,30 @@
   </si>
   <si>
     <t>txnlsm_protocol_032</t>
+  </si>
+  <si>
+    <t>txnlsm_pro003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create user 'txnlsm_pro003'@'172.20.3.15' identified by 'abc123'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show create user 'txnlsm_pro003'@'172.20.3.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnlsm_pro027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create user 'txnlsm_pro027' identified by 'abc123' require ssl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show create user 'txnlsm_pro027'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,7 +982,7 @@
     <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.125" style="6" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
@@ -1005,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -1040,16 +1040,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1069,27 +1069,27 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1098,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>8</v>
@@ -1118,28 +1118,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -1147,28 +1147,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
@@ -1176,28 +1176,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>8</v>
@@ -1205,28 +1205,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>8</v>
@@ -1234,28 +1234,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>8</v>
@@ -1263,28 +1263,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>8</v>
@@ -1292,28 +1292,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>8</v>
@@ -1321,28 +1321,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>8</v>
@@ -1350,28 +1350,28 @@
     </row>
     <row r="13" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>8</v>
@@ -1379,28 +1379,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>8</v>
@@ -1408,28 +1408,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>8</v>
@@ -1437,28 +1437,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>8</v>
@@ -1466,54 +1466,54 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>8</v>
@@ -1547,196 +1547,196 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="6"/>
       <c r="H24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>8</v>
@@ -1744,48 +1744,48 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="351" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>8</v>
@@ -1793,80 +1793,80 @@
     </row>
     <row r="31" spans="1:11" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
